--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB91607-BB86-4748-A398-03C17AB9DDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D35564-9C54-4426-B76D-C88787EAD910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -48,7 +48,10 @@
     <t>filled agreement, completed first twochapters+ exercises</t>
   </si>
   <si>
-    <t>chapter 3 completed</t>
+    <t xml:space="preserve">chapter 3  and chapter 4 fully completed </t>
+  </si>
+  <si>
+    <t>chapter 4 was hard UwU</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,10 +428,13 @@
         <v>43958</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D35564-9C54-4426-B76D-C88787EAD910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D5E8C-EC96-47FC-BF49-35E3C005A828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +60,21 @@
   </si>
   <si>
     <t>chapter 4 was hard UwU</t>
+  </si>
+  <si>
+    <t>freeday</t>
+  </si>
+  <si>
+    <t>chapter 5 completed with exercises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentation work </t>
+  </si>
+  <si>
+    <t>reading chapter 6 + ex 1</t>
+  </si>
+  <si>
+    <t>completed the exercises for chapter 6</t>
   </si>
 </sst>
 </file>
@@ -373,7 +396,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,25 +464,55 @@
       <c r="A5" s="1">
         <v>43959</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43960</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43961</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43962</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43963</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D5E8C-EC96-47FC-BF49-35E3C005A828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44B210-AF9B-4CCF-899E-735CCBC11FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">chapter 3  and chapter 4 fully completed </t>
   </si>
   <si>
-    <t>chapter 4 was hard UwU</t>
-  </si>
-  <si>
     <t>freeday</t>
   </si>
   <si>
@@ -75,6 +72,21 @@
   </si>
   <si>
     <t>completed the exercises for chapter 6</t>
+  </si>
+  <si>
+    <t>red chapter 7 completedfirst exercise, stuck on the second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter 4 was hard </t>
+  </si>
+  <si>
+    <t>internet died in the wholke area making it impossible to work</t>
+  </si>
+  <si>
+    <t>finished chapter 7</t>
+  </si>
+  <si>
+    <t>finished chapter 8</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,8 +479,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,27 +524,51 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43964</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43965</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43966</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43967</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44B210-AF9B-4CCF-899E-735CCBC11FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91F5B5-41DD-42C4-AD28-7F41AC3F594A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>finished chapter 8</t>
+  </si>
+  <si>
+    <t>finished chapter 9</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +578,12 @@
       <c r="A14" s="1">
         <v>43968</v>
       </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91F5B5-41DD-42C4-AD28-7F41AC3F594A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270E93D-4CC0-4050-9E1A-20DEEBF89A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>finished chapter 9</t>
+  </si>
+  <si>
+    <t>red chapter 10</t>
+  </si>
+  <si>
+    <t>got stuck on ex 2</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,6 +595,15 @@
       <c r="A15" s="1">
         <v>43969</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270E93D-4CC0-4050-9E1A-20DEEBF89A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD84582-013F-428E-94B5-8DBA8117F46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -77,9 +77,6 @@
     <t>red chapter 7 completedfirst exercise, stuck on the second</t>
   </si>
   <si>
-    <t xml:space="preserve">chapter 4 was hard </t>
-  </si>
-  <si>
     <t>internet died in the wholke area making it impossible to work</t>
   </si>
   <si>
@@ -95,7 +92,28 @@
     <t>red chapter 10</t>
   </si>
   <si>
-    <t>got stuck on ex 2</t>
+    <t>chapter 10 exercises completed</t>
+  </si>
+  <si>
+    <t>got stuck on ex 1</t>
+  </si>
+  <si>
+    <t>got stuck on exports, had to studyadditional info</t>
+  </si>
+  <si>
+    <t>chapter 11 completed</t>
+  </si>
+  <si>
+    <t>chapter was unclear, had to look up some additional info in net, exercises required a lot of unnecessary actions</t>
+  </si>
+  <si>
+    <t>chapter 4 was hard worktime was separated for 4 hours during daytime and 3 hours during nighttime. Working at night is more efficient</t>
+  </si>
+  <si>
+    <t>chapter 12 completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had hard times working with the last exercise remembering about prototypes </t>
   </si>
 </sst>
 </file>
@@ -417,7 +435,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +443,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" customWidth="1"/>
+    <col min="4" max="4" width="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -478,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -566,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -577,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -599,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -609,83 +627,116 @@
       <c r="A16" s="1">
         <v>43970</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43971</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43972</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43973</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43974</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43975</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43977</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43978</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43979</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43981</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43983</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43984</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43985</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43986</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD84582-013F-428E-94B5-8DBA8117F46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63970F-5FEC-4BBC-9D9A-6A605FEBE599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t xml:space="preserve">had hard times working with the last exercise remembering about prototypes </t>
+  </si>
+  <si>
+    <t>short intro for HTML, good for revision</t>
+  </si>
+  <si>
+    <t>chapter 13 completed, chapter 14 red</t>
+  </si>
+  <si>
+    <t>chapter 14 completed, docs filled, github updated</t>
   </si>
 </sst>
 </file>
@@ -435,7 +444,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,15 +689,36 @@
       <c r="A20" s="1">
         <v>43974</v>
       </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43975</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43976</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63970F-5FEC-4BBC-9D9A-6A605FEBE599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D030E8-A94C-49B1-A817-C1B63C94DE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>chapter 14 completed, docs filled, github updated</t>
+  </si>
+  <si>
+    <t>chapter 15 completed</t>
+  </si>
+  <si>
+    <t>had to cheat on the third exercise as after 2.5 hours of work on the prev onesmy head simply did not work at all</t>
+  </si>
+  <si>
+    <t>studied chapter 16, completed first two exercises</t>
+  </si>
+  <si>
+    <t>had to look up some solutions as mine ones did not perform properly. Also had to look up some explainations on YT as the book did not give enough info</t>
+  </si>
+  <si>
+    <t>finished chapter 16</t>
+  </si>
+  <si>
+    <t>chapter 17 completed</t>
   </si>
 </sst>
 </file>
@@ -443,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +470,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="4" max="4" width="112" customWidth="1"/>
+    <col min="4" max="4" width="116.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -725,25 +743,61 @@
       <c r="A23" s="1">
         <v>43977</v>
       </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43978</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43979</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43980</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43981</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D030E8-A94C-49B1-A817-C1B63C94DE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2D353-EA4D-4E89-BE94-D4EADDC30970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>chapter 17 completed</t>
+  </si>
+  <si>
+    <t>chapter 18 red, exercises 1 and 2 completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> freeday due to doctors appointment</t>
   </si>
 </sst>
 </file>
@@ -461,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,15 +810,33 @@
       <c r="A28" s="1">
         <v>43982</v>
       </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43983</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43984</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2D353-EA4D-4E89-BE94-D4EADDC30970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0478628-E3E5-419D-8290-EDA097E06250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,48 @@
   </si>
   <si>
     <t xml:space="preserve"> freeday due to doctors appointment</t>
+  </si>
+  <si>
+    <t>studied chapter 19</t>
+  </si>
+  <si>
+    <t>another doctors appointment</t>
+  </si>
+  <si>
+    <t>additional research via YT and w3schools</t>
+  </si>
+  <si>
+    <t>started working on chapter 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revising </t>
+  </si>
+  <si>
+    <t>looked up the game project in the book to get some concepts for the practical part</t>
+  </si>
+  <si>
+    <t>freeday, was moving back to Oulu</t>
+  </si>
+  <si>
+    <t>freeday was moving from Oulu</t>
+  </si>
+  <si>
+    <t>documentation work, reorganising working schedule, revision</t>
+  </si>
+  <si>
+    <t>additional studying of parcers based on prev exercises</t>
+  </si>
+  <si>
+    <t>almost finished chapter 20</t>
+  </si>
+  <si>
+    <t>node programming goes very hard</t>
+  </si>
+  <si>
+    <t>still  very confused with node coding, ned more info</t>
+  </si>
+  <si>
+    <t>node still does not work well</t>
   </si>
 </sst>
 </file>
@@ -467,15 +509,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
     <col min="4" max="4" width="116.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -843,88 +885,184 @@
       <c r="A31" s="1">
         <v>43985</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43986</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43987</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43988</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43989</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43990</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43991</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43992</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43993</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43994</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43995</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43996</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43997</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43998</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43999</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44000</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44001</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44002</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0478628-E3E5-419D-8290-EDA097E06250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5E8C9-4516-4C34-A495-A87BC6C6238B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>node still does not work well</t>
+  </si>
+  <si>
+    <t>gathering info for the project, looking for options, testing things</t>
+  </si>
+  <si>
+    <t>started building a test version, looked up free sprites</t>
+  </si>
+  <si>
+    <t>dropped the previous version, started from 0</t>
+  </si>
+  <si>
+    <t>continue working on current approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprites did not match, had to find new ones, most likely will have to create my own ones </t>
+  </si>
+  <si>
+    <t>kept on working, jumping added</t>
+  </si>
+  <si>
+    <t>added collision with ground/walls</t>
+  </si>
+  <si>
+    <t>took me the whole day to build and debug it</t>
   </si>
 </sst>
 </file>
@@ -509,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +625,7 @@
         <v>43961</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1051,98 +1075,143 @@
       <c r="A45" s="1">
         <v>43999</v>
       </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44000</v>
       </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44001</v>
       </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44002</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44003</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44004</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44005</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44006</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44007</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44008</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44009</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44010</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44011</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44012</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44013</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44014</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44015</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44016</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44017</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44018</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5E8C9-4516-4C34-A495-A87BC6C6238B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1B37B-06DB-4A80-AF07-8FE6FF5822E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>took me the whole day to build and debug it</t>
+  </si>
+  <si>
+    <t>camera movement added</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,6 +1158,12 @@
       <c r="A52" s="1">
         <v>44006</v>
       </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1B37B-06DB-4A80-AF07-8FE6FF5822E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACC372-3C7B-48FC-90CB-E2B2D78B80E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>camera movement added</t>
+  </si>
+  <si>
+    <t>animations added, improved code</t>
+  </si>
+  <si>
+    <t>added sprinting, some animations, technical improvements</t>
   </si>
 </sst>
 </file>
@@ -536,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,15 +1175,33 @@
       <c r="A53" s="1">
         <v>44007</v>
       </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44008</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44009</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACC372-3C7B-48FC-90CB-E2B2D78B80E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2767E0C-0A5D-4740-9ED3-B25CDDC0954C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>added sprinting, some animations, technical improvements</t>
+  </si>
+  <si>
+    <t>refactoring, layer separation, fixing transparent background</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,6 +1211,12 @@
       <c r="A56" s="1">
         <v>44010</v>
       </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2767E0C-0A5D-4740-9ED3-B25CDDC0954C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5121BD-C874-4280-8005-9D7977D17D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>refactoring, layer separation, fixing transparent background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tried to implement new entities, failed, had </t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,6 +1225,12 @@
       <c r="A57" s="1">
         <v>44011</v>
       </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5121BD-C874-4280-8005-9D7977D17D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410D044-80BA-4B59-A954-F34714B8F1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -227,7 +227,10 @@
     <t>refactoring, layer separation, fixing transparent background</t>
   </si>
   <si>
-    <t xml:space="preserve">tried to implement new entities, failed, had </t>
+    <t>tried to implement new entities, failed, fixed it at night</t>
+  </si>
+  <si>
+    <t>more fixes even tho it is a freeday</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1229,7 @@
         <v>44011</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -1235,6 +1238,12 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44012</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410D044-80BA-4B59-A954-F34714B8F1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97160AB1-B649-4B46-9783-B9F0E2FC9F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
     <t>tried to implement new entities, failed, fixed it at night</t>
   </si>
   <si>
-    <t>more fixes even tho it is a freeday</t>
+    <t>more fixes and refactoring even tho it is a freeday,</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
         <v>44012</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97160AB1-B649-4B46-9783-B9F0E2FC9F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC7842-2989-412F-962C-1BFFE6FBAD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>more fixes and refactoring even tho it is a freeday,</t>
+  </si>
+  <si>
+    <t>entity interactions added</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,6 +1253,12 @@
       <c r="A59" s="1">
         <v>44013</v>
       </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC7842-2989-412F-962C-1BFFE6FBAD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCE91B-1DB0-452E-84A3-55B3C111D451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>entity interactions added</t>
+  </si>
+  <si>
+    <t>refactoring, making the game look more presentable</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,6 +1267,12 @@
       <c r="A60" s="1">
         <v>44014</v>
       </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCE91B-1DB0-452E-84A3-55B3C111D451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08850C0C-5F68-4339-9B5D-D34793D3E7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>refactoring, making the game look more presentable</t>
+  </si>
+  <si>
+    <t>added new layer for text and font class</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,10 +1281,19 @@
       <c r="A61" s="1">
         <v>44015</v>
       </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44016</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08850C0C-5F68-4339-9B5D-D34793D3E7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E3CEFF-D1AA-4DDC-A251-5E70F36DBD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>added new layer for text and font class</t>
+  </si>
+  <si>
+    <t>S O U N D S</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,6 +1303,12 @@
       <c r="A63" s="1">
         <v>44017</v>
       </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E3CEFF-D1AA-4DDC-A251-5E70F36DBD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B96A6-A37E-446C-9627-96BF41B21256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>S O U N D S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event emitter added, testing </t>
+  </si>
+  <si>
+    <t>new enemy added, some refactoring done</t>
   </si>
 </sst>
 </file>
@@ -563,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,6 +1293,9 @@
       <c r="B61">
         <v>0</v>
       </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -1314,83 +1323,101 @@
       <c r="A64" s="1">
         <v>44018</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44019</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44020</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44021</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44022</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44023</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44024</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44025</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44026</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44027</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44028</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44029</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44030</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44031</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44032</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44033</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44034</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B96A6-A37E-446C-9627-96BF41B21256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D621F-C031-4ECA-8E00-212146538643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>new enemy added, some refactoring done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refactoring done, added interaction with tiles by a player </t>
+  </si>
+  <si>
+    <t>basically an ability to delete or "break" tiles from inside of the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added music, experimented more with replacing variables, textures and sounds </t>
   </si>
 </sst>
 </file>
@@ -569,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,10 +1365,25 @@
       <c r="A67" s="1">
         <v>44021</v>
       </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44022</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D621F-C031-4ECA-8E00-212146538643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA1EA91-CBF7-4C50-875B-0C1141DB7AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">added music, experimented more with replacing variables, textures and sounds </t>
+  </si>
+  <si>
+    <t>refactoring, fixing old bugs and the bugs created while fixing old ones</t>
   </si>
 </sst>
 </file>
@@ -578,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,10 +1393,22 @@
       <c r="A69" s="1">
         <v>44023</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44024</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA1EA91-CBF7-4C50-875B-0C1141DB7AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19AA835-3EBD-40F7-8F6E-195B191794C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19AA835-3EBD-40F7-8F6E-195B191794C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635BDA4-9FED-4D21-8483-AE91248A2142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>refactoring, fixing old bugs and the bugs created while fixing old ones</t>
+  </si>
+  <si>
+    <t>music control, fixing bugs MORE REFACTORING</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,6 +1418,12 @@
       <c r="A71" s="1">
         <v>44025</v>
       </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635BDA4-9FED-4D21-8483-AE91248A2142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B0F35-0728-4EE4-A01A-7516A361EC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>music control, fixing bugs MORE REFACTORING</t>
+  </si>
+  <si>
+    <t>coins added</t>
   </si>
 </sst>
 </file>
@@ -584,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,10 +1432,22 @@
       <c r="A72" s="1">
         <v>44026</v>
       </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44027</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B0F35-0728-4EE4-A01A-7516A361EC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9570C-8DA9-446F-9806-F778094DCDCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>coins added</t>
+  </si>
+  <si>
+    <t>started building level progression, refactored even more things</t>
   </si>
 </sst>
 </file>
@@ -587,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,6 +1457,12 @@
       <c r="A74" s="1">
         <v>44028</v>
       </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9570C-8DA9-446F-9806-F778094DCDCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1146D41-BE83-43C6-ADA2-3F7CA389B8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>started building level progression, refactored even more things</t>
+  </si>
+  <si>
+    <t>build the screen in between of level</t>
+  </si>
+  <si>
+    <t>basic level progression made possible</t>
   </si>
 </sst>
 </file>
@@ -590,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,10 +1474,22 @@
       <c r="A75" s="1">
         <v>44029</v>
       </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44030</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1146D41-BE83-43C6-ADA2-3F7CA389B8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FA8A4-785B-46B5-AB16-B3B65C7FBE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>basic level progression made possible</t>
+  </si>
+  <si>
+    <t>refactoring, fixing bugs</t>
   </si>
 </sst>
 </file>
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,10 +1499,22 @@
       <c r="A77" s="1">
         <v>44031</v>
       </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44032</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FA8A4-785B-46B5-AB16-B3B65C7FBE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B128C5D-1FCF-4D70-B850-D23A0FC27B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>refactoring, fixing bugs</t>
+  </si>
+  <si>
+    <t>attempts to fix bugs, side studying</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,6 +1524,12 @@
       <c r="A79" s="1">
         <v>44033</v>
       </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B128C5D-1FCF-4D70-B850-D23A0FC27B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99EAD71-17E1-443E-9153-D44D26673FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>attempts to fix bugs, side studying</t>
+  </si>
+  <si>
+    <t>level design</t>
+  </si>
+  <si>
+    <t>bugs fixed, other bugs added, tiles redraw</t>
   </si>
 </sst>
 </file>
@@ -602,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,53 +1541,65 @@
       <c r="A80" s="1">
         <v>44034</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44035</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44036</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44037</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44038</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44039</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44040</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44041</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44042</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44044</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99EAD71-17E1-443E-9153-D44D26673FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26856D4-638B-4520-BEA6-B18BE2AA5CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>bugs fixed, other bugs added, tiles redraw</t>
+  </si>
+  <si>
+    <t>trying to fix a single bug that broke everything, more redesign</t>
+  </si>
+  <si>
+    <t>had to split my work into day and night shifts</t>
   </si>
 </sst>
 </file>
@@ -608,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44035</v>
       </c>
@@ -1559,47 +1565,62 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44036</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44037</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44038</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44039</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44040</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44041</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44042</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44044</v>
       </c>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26856D4-638B-4520-BEA6-B18BE2AA5CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AF8F6-34CC-4281-AC41-8BA23AED787C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>had to split my work into day and night shifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvl2 completed, finishing touches </t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,6 +1597,12 @@
       <c r="A84" s="1">
         <v>44038</v>
       </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordi\Desktop\SUMMA_PROJ\SummerProject2020DmitriiWeaver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AF8F6-34CC-4281-AC41-8BA23AED787C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E159F9A-0D98-4B28-8A50-438739366842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t xml:space="preserve">lvl2 completed, finishing touches </t>
+  </si>
+  <si>
+    <t>trying to upload the project on a server</t>
+  </si>
+  <si>
+    <t>project deployed on a server</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,6 +1640,114 @@
         <v>44044</v>
       </c>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44062</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
